--- a/runningArea/50Missions_2.xlsx
+++ b/runningArea/50Missions_2.xlsx
@@ -8078,7 +8078,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B33">
         <v>7</v>
@@ -8095,7 +8095,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -8112,7 +8112,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B35">
         <v>14</v>
@@ -8129,7 +8129,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -8146,7 +8146,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B37">
         <v>18</v>
@@ -8163,7 +8163,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -8180,7 +8180,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B39">
         <v>32</v>
@@ -8197,7 +8197,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B40">
         <v>41</v>
@@ -8214,7 +8214,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -8231,7 +8231,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B42">
         <v>8</v>
@@ -8248,7 +8248,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B43">
         <v>24</v>
@@ -8265,7 +8265,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -8282,7 +8282,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B45">
         <v>36</v>
@@ -8299,7 +8299,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -8316,7 +8316,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B47">
         <v>26</v>
@@ -8333,7 +8333,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -8350,7 +8350,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B49">
         <v>21</v>
@@ -8367,7 +8367,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -8384,7 +8384,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B51">
         <v>37</v>
@@ -8401,7 +8401,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B52">
         <v>23</v>
@@ -8418,7 +8418,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -8435,7 +8435,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B54">
         <v>33</v>
@@ -8452,7 +8452,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -8469,7 +8469,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B56">
         <v>43</v>
@@ -8486,7 +8486,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -8503,7 +8503,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B58">
         <v>28</v>
@@ -8520,7 +8520,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -8537,7 +8537,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B60">
         <v>6</v>
@@ -8554,7 +8554,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B61">
         <v>20</v>
@@ -8571,7 +8571,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -8588,7 +8588,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B63">
         <v>45</v>
@@ -8605,7 +8605,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -8622,7 +8622,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B65">
         <v>35</v>
@@ -8639,7 +8639,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -8656,7 +8656,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B67">
         <v>44</v>
@@ -8673,7 +8673,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B68">
         <v>25</v>
@@ -8690,7 +8690,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8707,7 +8707,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B70">
         <v>39</v>
@@ -8724,7 +8724,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -8741,7 +8741,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B72">
         <v>47</v>
@@ -8758,7 +8758,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -8775,7 +8775,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B74">
         <v>27</v>
@@ -8792,7 +8792,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B75">
         <v>40</v>
@@ -8809,7 +8809,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -8826,7 +8826,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B77">
         <v>46</v>
@@ -8843,7 +8843,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B78">
         <v>19</v>
@@ -8860,7 +8860,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -8877,7 +8877,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B80">
         <v>5</v>
